--- a/trunk/Org. Interna/HorarioMayo24Junio4.xlsx
+++ b/trunk/Org. Interna/HorarioMayo24Junio4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="28">
   <si>
     <t>Integrante</t>
   </si>
@@ -192,14 +192,14 @@
     <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -563,26 +563,26 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
@@ -627,8 +627,8 @@
       <c r="O10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4">
@@ -649,8 +649,8 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4">
@@ -671,10 +671,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="N12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4">
@@ -695,10 +699,14 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="N13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4">
@@ -721,10 +729,14 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="N14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4">
@@ -746,11 +758,15 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4">
@@ -772,11 +788,15 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4">
@@ -798,11 +818,15 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4">
@@ -824,13 +848,19 @@
       <c r="J18" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4">
@@ -852,13 +882,19 @@
       <c r="J19" s="4">
         <v>0.625</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4">
@@ -880,13 +916,21 @@
       <c r="J20" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4">
@@ -908,13 +952,21 @@
       <c r="J21" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="4">
@@ -936,13 +988,21 @@
       <c r="J22" s="4">
         <v>0.75</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="4">
@@ -962,13 +1022,21 @@
       <c r="J23" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4">
@@ -989,12 +1057,18 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="4">
@@ -1013,12 +1087,16 @@
         <v>0.875</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="4">
@@ -1037,12 +1115,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="4">
@@ -1061,12 +1141,14 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="4">
@@ -1085,12 +1167,14 @@
         <v>0</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="4">
@@ -1109,12 +1193,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4">
@@ -1131,12 +1217,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="4">
@@ -1153,12 +1241,14 @@
         <v>0.125</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="4">
@@ -1175,12 +1265,14 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="4">
@@ -1201,8 +1293,8 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="4">
@@ -1223,8 +1315,8 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
